--- a/GePS-HOPES_YEA/documents/Catalog_Item_Import.xlsx
+++ b/GePS-HOPES_YEA/documents/Catalog_Item_Import.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\deepa\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26CF1193-89C7-4AB8-9F49-9C183CD97493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3B4A13A-16BF-4FE9-997D-F11D40459FB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOQ Items" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="24">
   <si>
     <t>Sl. no.</t>
   </si>
@@ -55,40 +55,43 @@
     <t>Quantity</t>
   </si>
   <si>
-    <t>RC-00149</t>
-  </si>
-  <si>
-    <t>Prefab Signal Cable</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>5</t>
+    <t>RC-00002</t>
+  </si>
+  <si>
+    <t>Battery Charger System</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Pheonix</t>
+  </si>
+  <si>
+    <t>6000.25.4556</t>
   </si>
   <si>
     <t>NA</t>
   </si>
   <si>
-    <t>MCCB 250A, 415V AC, 3pole</t>
-  </si>
-  <si>
-    <t xml:space="preserve">make </t>
-  </si>
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IND </t>
+    <t>NTP Server Power Supply</t>
+  </si>
+  <si>
+    <t>Phoenix</t>
+  </si>
+  <si>
+    <t>123.225.456</t>
+  </si>
+  <si>
+    <t>Diode for 24 V DC Power Supply-10 Amps</t>
+  </si>
+  <si>
+    <t>321.445.889</t>
+  </si>
+  <si>
+    <t>PS502-02Power Supply (24/20 VDC)</t>
+  </si>
+  <si>
+    <t>6000.2525.852</t>
   </si>
 </sst>
 </file>
@@ -466,15 +469,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.5546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.21875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -509,7 +525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -529,22 +545,22 @@
         <v>15</v>
       </c>
       <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
-        <v>17</v>
-      </c>
       <c r="I2">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K2">
-        <v>10</v>
+        <v>1500</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -552,31 +568,101 @@
         <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="F3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3">
+        <v>60</v>
+      </c>
+      <c r="J3">
+        <v>4</v>
+      </c>
+      <c r="K3">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4">
+        <v>60</v>
+      </c>
+      <c r="J4">
+        <v>3</v>
+      </c>
+      <c r="K4">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
-        <v>17</v>
-      </c>
-      <c r="I3">
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5">
+        <v>60</v>
+      </c>
+      <c r="J5">
         <v>5</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-      <c r="K3">
-        <v>10</v>
+      <c r="K5">
+        <v>1800</v>
       </c>
     </row>
   </sheetData>
